--- a/Analysis/Tables/TableX_RelativeImportance.xlsx
+++ b/Analysis/Tables/TableX_RelativeImportance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="60" windowWidth="13425" windowHeight="14415"/>
+    <workbookView xWindow="11370" yWindow="-90" windowWidth="13425" windowHeight="14415"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,6 +588,12 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.89881560086328305</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -599,6 +605,12 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
+      <c r="E7" s="1">
+        <v>8.45400167570136E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -608,6 +620,12 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
+      <c r="E8" s="1">
+        <v>7.1079050366800997E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.27937686174500098</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -617,6 +635,10 @@
       <c r="D9" s="1">
         <v>0.276794467828338</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>0.71004147738513002</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -628,6 +650,10 @@
       <c r="D10" s="1">
         <v>0.28898585848442399</v>
       </c>
+      <c r="E10" s="1">
+        <v>5.5554771426135803E-2</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -639,6 +665,12 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
+      <c r="E11" s="1">
+        <v>6.5841661573939003E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -650,6 +682,12 @@
       <c r="D12" s="1">
         <v>0.40133097315361199</v>
       </c>
+      <c r="E12" s="1">
+        <v>6.5598423340271494E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.3900804070842199E-2</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -661,6 +699,10 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E13" s="1">
+        <v>0.42871756733630201</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -672,6 +714,10 @@
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="1">
+        <v>0.33669953825036297</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -683,6 +729,16 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
+      <c r="E15" s="1">
+        <v>0.37831555784197801</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -694,6 +750,8 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -705,6 +763,10 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>0.21688588553416799</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
@@ -714,15 +776,15 @@
       <c r="D19" s="6">
         <v>0.114662601732806</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
@@ -734,8 +796,12 @@
       <c r="D21" s="8">
         <v>9</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4">
+        <v>17</v>
+      </c>
+      <c r="F21" s="4">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Analysis/Tables/TableX_RelativeImportance.xlsx
+++ b/Analysis/Tables/TableX_RelativeImportance.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
